--- a/public/templates/project_weekly_update_template.xlsx
+++ b/public/templates/project_weekly_update_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>项目号</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>计划出Call</t>
+  </si>
+  <si>
+    <t>上周出Call</t>
   </si>
   <si>
     <t>本周出Call</t>
@@ -259,7 +262,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -267,16 +270,16 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.4534412955466"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="32.9068825910931"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.4534412955466"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="3" width="16.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="3" width="12.3400809716599"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="32.9068825910931"/>
-    <col collapsed="false" hidden="false" max="1000" min="9" style="4" width="9.08502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="1001" style="0" width="9.08502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="3" width="12.3400809716599"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="32.9068825910931"/>
+    <col collapsed="false" hidden="false" max="1001" min="10" style="4" width="9.08502024291498"/>
+    <col collapsed="false" hidden="false" max="1025" min="1002" style="0" width="9.08502024291498"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -303,6 +306,9 @@
       </c>
       <c r="H1" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
